--- a/LELTÁR.xlsx
+++ b/LELTÁR.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koncz.boglarka\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\hálózat\iktelte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F70025E4-3E56-4770-9637-5663A88603EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{4FA5E190-A735-4518-8B2D-D09EAA043726}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>DB</t>
   </si>
@@ -40,12 +39,39 @@
   </si>
   <si>
     <t>4331 R</t>
+  </si>
+  <si>
+    <t>utp patch kábel</t>
+  </si>
+  <si>
+    <t>500m</t>
+  </si>
+  <si>
+    <t>uplink kábel</t>
+  </si>
+  <si>
+    <t>22m</t>
+  </si>
+  <si>
+    <t>ether ch kábel</t>
+  </si>
+  <si>
+    <t>8m</t>
+  </si>
+  <si>
+    <t>router kábel</t>
+  </si>
+  <si>
+    <t>4m</t>
+  </si>
+  <si>
+    <t>WAN kábel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,16 +417,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2FE4F3-5C46-479A-84E1-6DB49313A331}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,28 +434,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
